--- a/src/main/resources/static/xlsx-templates/load-plant/with-employees-locations.xlsx
+++ b/src/main/resources/static/xlsx-templates/load-plant/with-employees-locations.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t xml:space="preserve">Nazwa oddziału</t>
   </si>
@@ -213,16 +213,10 @@
     <t xml:space="preserve">Kawon</t>
   </si>
   <si>
-    <t xml:space="preserve">Standard</t>
-  </si>
-  <si>
     <t xml:space="preserve">Anna</t>
   </si>
   <si>
     <t xml:space="preserve">Nowak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operator</t>
   </si>
 </sst>
 </file>
@@ -452,7 +446,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -461,8 +455,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFBF00"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
   </fills>
@@ -472,6 +484,13 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -496,13 +515,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="medium"/>
       <top/>
@@ -555,208 +567,236 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="58">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="2" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="2" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="2" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="2" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="true"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="2" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="3" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="4" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="1" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="23" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="5" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="23" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="1" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="1" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="1" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="true"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="1" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="2" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="3" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="4" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="23" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="5" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="23" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -774,6 +814,66 @@
     <cellStyle name="Normalny_1 strona umowy1" xfId="23"/>
     <cellStyle name="一般 2" xfId="24"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF81D41A"/>
+      <rgbColor rgb="FFFFBF00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -788,9 +888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>25920</xdr:colOff>
+      <xdr:colOff>25200</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>98640</xdr:rowOff>
+      <xdr:rowOff>97920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -800,7 +900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3840480"/>
-          <a:ext cx="3296160" cy="792000"/>
+          <a:ext cx="3301560" cy="791280"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -957,9 +1057,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>33840</xdr:colOff>
+      <xdr:colOff>33120</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>91080</xdr:rowOff>
+      <xdr:rowOff>90360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -968,8 +1068,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3932280" y="4183560"/>
-          <a:ext cx="3295800" cy="1111680"/>
+          <a:off x="3940200" y="4183560"/>
+          <a:ext cx="3301200" cy="1110960"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1175,7 +1275,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="63720" y="3741480"/>
-          <a:ext cx="1476000" cy="0"/>
+          <a:ext cx="1478520" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1216,8 +1316,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1738800" y="3741480"/>
-          <a:ext cx="878400" cy="0"/>
+          <a:off x="1741320" y="3741480"/>
+          <a:ext cx="880920" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1259,7 +1359,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="71640" y="4602600"/>
-          <a:ext cx="2521080" cy="0"/>
+          <a:ext cx="2525040" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1290,32 +1390,32 @@
   </sheetPr>
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1335,11 +1435,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.30078125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1358,485 +1458,485 @@
   </sheetPr>
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.30078125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="n">
+      <c r="A1" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="n">
+      <c r="B1" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="n">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="n">
+      <c r="E1" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="n">
+      <c r="F1" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="n">
+      <c r="G1" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="n">
+      <c r="H1" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="n">
+      <c r="I1" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="n">
+      <c r="J1" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="5"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="5"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="4" t="n">
         <v>1380</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="n">
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="n">
         <v>179.9</v>
       </c>
-      <c r="E3" s="11" t="n">
+      <c r="E3" s="12" t="n">
         <v>33</v>
       </c>
-      <c r="F3" s="12" t="n">
+      <c r="F3" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="13" t="n">
+      <c r="G3" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="H3" s="14" t="n">
+      <c r="H3" s="15" t="n">
         <f aca="false">SUM(G3*E3)</f>
         <v>99</v>
       </c>
-      <c r="I3" s="15" t="n">
+      <c r="I3" s="16" t="n">
         <v>1.35</v>
       </c>
-      <c r="J3" s="16" t="n">
+      <c r="J3" s="17" t="n">
         <f aca="false">IF(H3="","",ROUND(I3*H3,2))</f>
         <v>133.65</v>
       </c>
-      <c r="K3" s="16"/>
-      <c r="M3" s="5"/>
+      <c r="K3" s="17"/>
+      <c r="M3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="4" t="n">
         <v>1800</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10" t="n">
+      <c r="C4" s="10"/>
+      <c r="D4" s="11" t="n">
         <v>54.9</v>
       </c>
-      <c r="E4" s="11" t="n">
+      <c r="E4" s="12" t="n">
         <v>33</v>
       </c>
-      <c r="F4" s="12" t="n">
+      <c r="F4" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="13" t="n">
+      <c r="G4" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="H4" s="14" t="n">
+      <c r="H4" s="15" t="n">
         <f aca="false">SUM(G4*E4)</f>
         <v>99</v>
       </c>
-      <c r="I4" s="15" t="n">
+      <c r="I4" s="16" t="n">
         <v>0.55</v>
       </c>
-      <c r="J4" s="16" t="n">
+      <c r="J4" s="17" t="n">
         <f aca="false">IF(H4="","",ROUND(I4*H4,2))</f>
         <v>54.45</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="18"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="19"/>
     </row>
     <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="4" t="n">
         <v>1839</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10" t="n">
+      <c r="C5" s="10"/>
+      <c r="D5" s="11" t="n">
         <v>59.9</v>
       </c>
-      <c r="E5" s="11" t="n">
+      <c r="E5" s="12" t="n">
         <v>33</v>
       </c>
-      <c r="F5" s="12" t="n">
+      <c r="F5" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="13" t="n">
+      <c r="G5" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="H5" s="14" t="n">
+      <c r="H5" s="15" t="n">
         <f aca="false">SUM(G5*E5)</f>
         <v>66</v>
       </c>
-      <c r="I5" s="15" t="n">
+      <c r="I5" s="16" t="n">
         <v>0.65</v>
       </c>
-      <c r="J5" s="16" t="n">
+      <c r="J5" s="17" t="n">
         <f aca="false">IF(H5="","",ROUND(I5*H5,2))</f>
         <v>42.9</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="18"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="19"/>
     </row>
     <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="4" t="n">
         <v>1379</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10" t="n">
+      <c r="C6" s="10"/>
+      <c r="D6" s="11" t="n">
         <v>189.9</v>
       </c>
-      <c r="E6" s="11" t="n">
+      <c r="E6" s="12" t="n">
         <v>33</v>
       </c>
-      <c r="F6" s="12" t="n">
+      <c r="F6" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="13" t="n">
+      <c r="G6" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="H6" s="14" t="n">
+      <c r="H6" s="15" t="n">
         <f aca="false">SUM(G6*E6)</f>
         <v>99</v>
       </c>
-      <c r="I6" s="15" t="n">
+      <c r="I6" s="16" t="n">
         <v>1.25</v>
       </c>
-      <c r="J6" s="16" t="n">
+      <c r="J6" s="17" t="n">
         <f aca="false">IF(H6="","",ROUND(I6*H6,2))</f>
         <v>123.75</v>
       </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="18"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="19"/>
     </row>
     <row r="7" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="4" t="n">
         <v>500</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10" t="n">
+      <c r="C7" s="10"/>
+      <c r="D7" s="11" t="n">
         <v>9.9</v>
       </c>
-      <c r="E7" s="11" t="n">
+      <c r="E7" s="12" t="n">
         <v>66</v>
       </c>
-      <c r="F7" s="12" t="n">
+      <c r="F7" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="13" t="n">
+      <c r="G7" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="H7" s="14" t="n">
+      <c r="H7" s="15" t="n">
         <f aca="false">SUM(G7*E7)</f>
         <v>198</v>
       </c>
-      <c r="I7" s="15" t="n">
+      <c r="I7" s="16" t="n">
         <v>0.05</v>
       </c>
-      <c r="J7" s="16" t="n">
+      <c r="J7" s="17" t="n">
         <f aca="false">IF(H7="","",ROUND(I7*H7,2))</f>
         <v>9.9</v>
       </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="18"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="19"/>
     </row>
     <row r="8" customFormat="false" ht="16.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="27" t="n">
+      <c r="J8" s="28" t="n">
         <f aca="false">IF(SUM(J3:J7)=0,"",ROUND(SUM(J3:J7),2))</f>
         <v>364.65</v>
       </c>
-      <c r="K8" s="27"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="18"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="19"/>
     </row>
     <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="28" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30" t="n">
+      <c r="I9" s="30"/>
+      <c r="J9" s="31" t="n">
         <f aca="false">IF(J8="","",ROUND(J8*4.33,2))</f>
         <v>1578.93</v>
       </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="18"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="19"/>
     </row>
     <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="26" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="31" t="n">
+      <c r="J10" s="32" t="n">
         <f aca="false">IF(J9="","",ROUND(J9*0.23,2))</f>
         <v>363.15</v>
       </c>
-      <c r="K10" s="31"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="18"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="19"/>
     </row>
     <row r="11" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="26" t="s">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="35" t="n">
+      <c r="J11" s="36" t="n">
         <v>1942.08</v>
       </c>
-      <c r="K11" s="35"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="18"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="19"/>
     </row>
     <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="18"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="19"/>
     </row>
     <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="18"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="19"/>
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="18"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="19"/>
     </row>
     <row r="15" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="18"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="19"/>
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="18"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19"/>
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="18"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="19"/>
     </row>
     <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="18"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19"/>
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="18"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="44"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="18"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="19"/>
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="18"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="19"/>
     </row>
     <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="47"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="18"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="19"/>
     </row>
     <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="47"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="18"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -1878,32 +1978,32 @@
   </sheetPr>
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1925,48 +2025,49 @@
   </sheetPr>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="50" width="25.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="27" style="1" width="11.84"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="53" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="50"/>
+      <c r="A23" s="54"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2"/>
+      <c r="A33" s="54"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2"/>
+      <c r="A34" s="54"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1986,431 +2087,432 @@
   </sheetPr>
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="55" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="55" width="15.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.31"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="56" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="57" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="57" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="57" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="57"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="57"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="57"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="57"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="57"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="57"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="57"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="57"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="57"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="57"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="57"/>
+      <c r="B18" s="57"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="57"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="57"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="57"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="57"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="57"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="57"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="57"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="57"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="57"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="57"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="57"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="57"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="57"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="57"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="57"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+      <c r="A37" s="57"/>
+      <c r="B37" s="57"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="57"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
+      <c r="A39" s="57"/>
+      <c r="B39" s="57"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
+      <c r="A40" s="57"/>
+      <c r="B40" s="57"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
+      <c r="A41" s="57"/>
+      <c r="B41" s="57"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
+      <c r="A42" s="57"/>
+      <c r="B42" s="57"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
+      <c r="A43" s="57"/>
+      <c r="B43" s="57"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="57"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="57"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
+      <c r="A46" s="57"/>
+      <c r="B46" s="57"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
+      <c r="A47" s="57"/>
+      <c r="B47" s="57"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
+      <c r="A48" s="57"/>
+      <c r="B48" s="57"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
+      <c r="A49" s="57"/>
+      <c r="B49" s="57"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
+      <c r="A50" s="57"/>
+      <c r="B50" s="57"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
+      <c r="A51" s="57"/>
+      <c r="B51" s="57"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
+      <c r="A52" s="57"/>
+      <c r="B52" s="57"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
+      <c r="A53" s="57"/>
+      <c r="B53" s="57"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
+      <c r="A54" s="57"/>
+      <c r="B54" s="57"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
+      <c r="A55" s="57"/>
+      <c r="B55" s="57"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
+      <c r="A56" s="57"/>
+      <c r="B56" s="57"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
+      <c r="A57" s="57"/>
+      <c r="B57" s="57"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
+      <c r="A58" s="57"/>
+      <c r="B58" s="57"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
+      <c r="A59" s="57"/>
+      <c r="B59" s="57"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
+      <c r="A60" s="57"/>
+      <c r="B60" s="57"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
+      <c r="A61" s="57"/>
+      <c r="B61" s="57"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
+      <c r="A62" s="57"/>
+      <c r="B62" s="57"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
+      <c r="A63" s="57"/>
+      <c r="B63" s="57"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
+      <c r="A64" s="57"/>
+      <c r="B64" s="57"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
+      <c r="A65" s="57"/>
+      <c r="B65" s="57"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
+      <c r="A66" s="57"/>
+      <c r="B66" s="57"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
+      <c r="A67" s="57"/>
+      <c r="B67" s="57"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
+      <c r="A68" s="57"/>
+      <c r="B68" s="57"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
+      <c r="A69" s="57"/>
+      <c r="B69" s="57"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
+      <c r="A70" s="57"/>
+      <c r="B70" s="57"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
+      <c r="A71" s="57"/>
+      <c r="B71" s="57"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
+      <c r="A72" s="57"/>
+      <c r="B72" s="57"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
+      <c r="A73" s="57"/>
+      <c r="B73" s="57"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
+      <c r="A74" s="57"/>
+      <c r="B74" s="57"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
+      <c r="A75" s="57"/>
+      <c r="B75" s="57"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
+      <c r="A76" s="57"/>
+      <c r="B76" s="57"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
+      <c r="A77" s="57"/>
+      <c r="B77" s="57"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
+      <c r="A78" s="57"/>
+      <c r="B78" s="57"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
+      <c r="A79" s="57"/>
+      <c r="B79" s="57"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
+      <c r="A80" s="57"/>
+      <c r="B80" s="57"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
+      <c r="A81" s="57"/>
+      <c r="B81" s="57"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
+      <c r="A82" s="57"/>
+      <c r="B82" s="57"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
+      <c r="A83" s="57"/>
+      <c r="B83" s="57"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
+      <c r="A84" s="57"/>
+      <c r="B84" s="57"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
+      <c r="A85" s="57"/>
+      <c r="B85" s="57"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
+      <c r="A86" s="57"/>
+      <c r="B86" s="57"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
+      <c r="A87" s="57"/>
+      <c r="B87" s="57"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
+      <c r="A88" s="57"/>
+      <c r="B88" s="57"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
+      <c r="A89" s="57"/>
+      <c r="B89" s="57"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
+      <c r="A90" s="57"/>
+      <c r="B90" s="57"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
+      <c r="A91" s="57"/>
+      <c r="B91" s="57"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
+      <c r="A92" s="57"/>
+      <c r="B92" s="57"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
+      <c r="A93" s="57"/>
+      <c r="B93" s="57"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
+      <c r="A94" s="57"/>
+      <c r="B94" s="57"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
+      <c r="A95" s="57"/>
+      <c r="B95" s="57"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
+      <c r="A96" s="57"/>
+      <c r="B96" s="57"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
+      <c r="A97" s="57"/>
+      <c r="B97" s="57"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
+      <c r="A98" s="57"/>
+      <c r="B98" s="57"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
+      <c r="A99" s="57"/>
+      <c r="B99" s="57"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
+      <c r="A100" s="57"/>
+      <c r="B100" s="57"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -2440,347 +2542,348 @@
   </sheetPr>
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.82"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="11.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="55" width="22.82"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="56" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="57" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="57" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="2"/>
+      <c r="D4" s="57"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="2"/>
+      <c r="D5" s="57"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="2"/>
+      <c r="D6" s="57"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="2"/>
+      <c r="D7" s="57"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="2"/>
+      <c r="D8" s="57"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="2"/>
+      <c r="D9" s="57"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="2"/>
+      <c r="D10" s="57"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="2"/>
+      <c r="D11" s="57"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="2"/>
+      <c r="D12" s="57"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="2"/>
+      <c r="D13" s="57"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="2"/>
+      <c r="D14" s="57"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="2"/>
+      <c r="D15" s="57"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="2"/>
+      <c r="D16" s="57"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="2"/>
+      <c r="D17" s="57"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="2"/>
+      <c r="D18" s="57"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="2"/>
+      <c r="D19" s="57"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="2"/>
+      <c r="D20" s="57"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="2"/>
+      <c r="D21" s="57"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="2"/>
+      <c r="D22" s="57"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="2"/>
+      <c r="D23" s="57"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="2"/>
+      <c r="D24" s="57"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="2"/>
+      <c r="D25" s="57"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="2"/>
+      <c r="D26" s="57"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="2"/>
+      <c r="D27" s="57"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="2"/>
+      <c r="D28" s="57"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="2"/>
+      <c r="D29" s="57"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="2"/>
+      <c r="D30" s="57"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D31" s="2"/>
+      <c r="D31" s="57"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D32" s="2"/>
+      <c r="D32" s="57"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D33" s="2"/>
+      <c r="D33" s="57"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D34" s="2"/>
+      <c r="D34" s="57"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D35" s="2"/>
+      <c r="D35" s="57"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D36" s="2"/>
+      <c r="D36" s="57"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D37" s="2"/>
+      <c r="D37" s="57"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D38" s="2"/>
+      <c r="D38" s="57"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D39" s="2"/>
+      <c r="D39" s="57"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D40" s="2"/>
+      <c r="D40" s="57"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D41" s="2"/>
+      <c r="D41" s="57"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D42" s="2"/>
+      <c r="D42" s="57"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D43" s="2"/>
+      <c r="D43" s="57"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D44" s="2"/>
+      <c r="D44" s="57"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D45" s="2"/>
+      <c r="D45" s="57"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D46" s="2"/>
+      <c r="D46" s="57"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D47" s="2"/>
+      <c r="D47" s="57"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D48" s="2"/>
+      <c r="D48" s="57"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D49" s="2"/>
+      <c r="D49" s="57"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D50" s="2"/>
+      <c r="D50" s="57"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D51" s="2"/>
+      <c r="D51" s="57"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D52" s="2"/>
+      <c r="D52" s="57"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D53" s="2"/>
+      <c r="D53" s="57"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D54" s="2"/>
+      <c r="D54" s="57"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D55" s="2"/>
+      <c r="D55" s="57"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D56" s="2"/>
+      <c r="D56" s="57"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D57" s="2"/>
+      <c r="D57" s="57"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D58" s="2"/>
+      <c r="D58" s="57"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D59" s="2"/>
+      <c r="D59" s="57"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D60" s="2"/>
+      <c r="D60" s="57"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D61" s="2"/>
+      <c r="D61" s="57"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D62" s="2"/>
+      <c r="D62" s="57"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D63" s="2"/>
+      <c r="D63" s="57"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D64" s="2"/>
+      <c r="D64" s="57"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D65" s="2"/>
+      <c r="D65" s="57"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D66" s="2"/>
+      <c r="D66" s="57"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D67" s="2"/>
+      <c r="D67" s="57"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D68" s="2"/>
+      <c r="D68" s="57"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D69" s="2"/>
+      <c r="D69" s="57"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D70" s="2"/>
+      <c r="D70" s="57"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D71" s="2"/>
+      <c r="D71" s="57"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D72" s="2"/>
+      <c r="D72" s="57"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D73" s="2"/>
+      <c r="D73" s="57"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D74" s="2"/>
+      <c r="D74" s="57"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D75" s="2"/>
+      <c r="D75" s="57"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D76" s="2"/>
+      <c r="D76" s="57"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D77" s="2"/>
+      <c r="D77" s="57"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D78" s="2"/>
+      <c r="D78" s="57"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D79" s="2"/>
+      <c r="D79" s="57"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D80" s="2"/>
+      <c r="D80" s="57"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D81" s="2"/>
+      <c r="D81" s="57"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D82" s="2"/>
+      <c r="D82" s="57"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D83" s="2"/>
+      <c r="D83" s="57"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D84" s="2"/>
+      <c r="D84" s="57"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D85" s="2"/>
+      <c r="D85" s="57"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D86" s="2"/>
+      <c r="D86" s="57"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D87" s="2"/>
+      <c r="D87" s="57"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D88" s="2"/>
+      <c r="D88" s="57"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D89" s="2"/>
+      <c r="D89" s="57"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D90" s="2"/>
+      <c r="D90" s="57"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D91" s="2"/>
+      <c r="D91" s="57"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D92" s="2"/>
+      <c r="D92" s="57"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D93" s="2"/>
+      <c r="D93" s="57"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D94" s="2"/>
+      <c r="D94" s="57"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D95" s="2"/>
+      <c r="D95" s="57"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D96" s="2"/>
+      <c r="D96" s="57"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D97" s="2"/>
+      <c r="D97" s="57"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D98" s="2"/>
+      <c r="D98" s="57"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D99" s="2"/>
+      <c r="D99" s="57"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D100" s="2"/>
+      <c r="D100" s="57"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2806,3081 +2909,3081 @@
   </sheetPr>
   <dimension ref="A1:I1003"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="14.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="15.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="22.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="55" width="15.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="57" width="22.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1234</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>5678</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>5678</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="57" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E4" s="2"/>
+      <c r="E4" s="57"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E5" s="2"/>
+      <c r="E5" s="57"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E6" s="2"/>
+      <c r="E6" s="57"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E7" s="2"/>
+      <c r="E7" s="57"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E8" s="2"/>
+      <c r="E8" s="57"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="2"/>
+      <c r="E9" s="57"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="2"/>
+      <c r="E10" s="57"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E11" s="2"/>
+      <c r="E11" s="57"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E12" s="2"/>
+      <c r="E12" s="57"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E13" s="2"/>
+      <c r="E13" s="57"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E14" s="2"/>
+      <c r="E14" s="57"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E15" s="2"/>
+      <c r="E15" s="57"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E16" s="2"/>
+      <c r="E16" s="57"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E17" s="2"/>
+      <c r="E17" s="57"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E18" s="2"/>
+      <c r="E18" s="57"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E19" s="2"/>
+      <c r="E19" s="57"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E20" s="2"/>
+      <c r="E20" s="57"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E21" s="2"/>
+      <c r="E21" s="57"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E22" s="2"/>
+      <c r="E22" s="57"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E23" s="2"/>
+      <c r="E23" s="57"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E24" s="2"/>
+      <c r="E24" s="57"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E25" s="2"/>
+      <c r="E25" s="57"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="2"/>
+      <c r="E26" s="57"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E27" s="2"/>
+      <c r="E27" s="57"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E28" s="2"/>
+      <c r="E28" s="57"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E29" s="2"/>
+      <c r="E29" s="57"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E30" s="2"/>
+      <c r="E30" s="57"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E31" s="2"/>
+      <c r="E31" s="57"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E32" s="2"/>
+      <c r="E32" s="57"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E33" s="2"/>
+      <c r="E33" s="57"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E34" s="2"/>
+      <c r="E34" s="57"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E35" s="2"/>
+      <c r="E35" s="57"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E36" s="2"/>
+      <c r="E36" s="57"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E37" s="2"/>
+      <c r="E37" s="57"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E38" s="2"/>
+      <c r="E38" s="57"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E39" s="2"/>
+      <c r="E39" s="57"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E40" s="2"/>
+      <c r="E40" s="57"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E41" s="2"/>
+      <c r="E41" s="57"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E42" s="2"/>
+      <c r="E42" s="57"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E43" s="2"/>
+      <c r="E43" s="57"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E44" s="2"/>
+      <c r="E44" s="57"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E45" s="2"/>
+      <c r="E45" s="57"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E46" s="2"/>
+      <c r="E46" s="57"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E47" s="2"/>
+      <c r="E47" s="57"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E48" s="2"/>
+      <c r="E48" s="57"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E49" s="2"/>
+      <c r="E49" s="57"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E50" s="2"/>
+      <c r="E50" s="57"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E51" s="2"/>
+      <c r="E51" s="57"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E52" s="2"/>
+      <c r="E52" s="57"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E53" s="2"/>
+      <c r="E53" s="57"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E54" s="2"/>
+      <c r="E54" s="57"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E55" s="2"/>
+      <c r="E55" s="57"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E56" s="2"/>
+      <c r="E56" s="57"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E57" s="2"/>
+      <c r="E57" s="57"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E58" s="2"/>
+      <c r="E58" s="57"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E59" s="2"/>
+      <c r="E59" s="57"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E60" s="2"/>
+      <c r="E60" s="57"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E61" s="2"/>
+      <c r="E61" s="57"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E62" s="2"/>
+      <c r="E62" s="57"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E63" s="2"/>
+      <c r="E63" s="57"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E64" s="2"/>
+      <c r="E64" s="57"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E65" s="2"/>
+      <c r="E65" s="57"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E66" s="2"/>
+      <c r="E66" s="57"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E67" s="2"/>
+      <c r="E67" s="57"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E68" s="2"/>
+      <c r="E68" s="57"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E69" s="2"/>
+      <c r="E69" s="57"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E70" s="2"/>
+      <c r="E70" s="57"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E71" s="2"/>
+      <c r="E71" s="57"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E72" s="2"/>
+      <c r="E72" s="57"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E73" s="2"/>
+      <c r="E73" s="57"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E74" s="2"/>
+      <c r="E74" s="57"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E75" s="2"/>
+      <c r="E75" s="57"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E76" s="2"/>
+      <c r="E76" s="57"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E77" s="2"/>
+      <c r="E77" s="57"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E78" s="2"/>
+      <c r="E78" s="57"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E79" s="2"/>
+      <c r="E79" s="57"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E80" s="2"/>
+      <c r="E80" s="57"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E81" s="2"/>
+      <c r="E81" s="57"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E82" s="2"/>
+      <c r="E82" s="57"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E83" s="2"/>
+      <c r="E83" s="57"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E84" s="2"/>
+      <c r="E84" s="57"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E85" s="2"/>
+      <c r="E85" s="57"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E86" s="2"/>
+      <c r="E86" s="57"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E87" s="2"/>
+      <c r="E87" s="57"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E88" s="2"/>
+      <c r="E88" s="57"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E89" s="2"/>
+      <c r="E89" s="57"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E90" s="2"/>
+      <c r="E90" s="57"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E91" s="2"/>
+      <c r="E91" s="57"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E92" s="2"/>
+      <c r="E92" s="57"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E93" s="2"/>
+      <c r="E93" s="57"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E94" s="2"/>
+      <c r="E94" s="57"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E95" s="2"/>
+      <c r="E95" s="57"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E96" s="2"/>
+      <c r="E96" s="57"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E97" s="2"/>
+      <c r="E97" s="57"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E98" s="2"/>
+      <c r="E98" s="57"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E99" s="2"/>
+      <c r="E99" s="57"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E100" s="2"/>
+      <c r="E100" s="57"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E101" s="2"/>
+      <c r="E101" s="57"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E102" s="2"/>
+      <c r="E102" s="57"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E103" s="2"/>
+      <c r="E103" s="57"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E104" s="2"/>
+      <c r="E104" s="57"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E105" s="2"/>
+      <c r="E105" s="57"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E106" s="2"/>
+      <c r="E106" s="57"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E107" s="2"/>
+      <c r="E107" s="57"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E108" s="2"/>
+      <c r="E108" s="57"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E109" s="2"/>
+      <c r="E109" s="57"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E110" s="2"/>
+      <c r="E110" s="57"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E111" s="2"/>
+      <c r="E111" s="57"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E112" s="2"/>
+      <c r="E112" s="57"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E113" s="2"/>
+      <c r="E113" s="57"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E114" s="2"/>
+      <c r="E114" s="57"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E115" s="2"/>
+      <c r="E115" s="57"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E116" s="2"/>
+      <c r="E116" s="57"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E117" s="2"/>
+      <c r="E117" s="57"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E118" s="2"/>
+      <c r="E118" s="57"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E119" s="2"/>
+      <c r="E119" s="57"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E120" s="2"/>
+      <c r="E120" s="57"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E121" s="2"/>
+      <c r="E121" s="57"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E122" s="2"/>
+      <c r="E122" s="57"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E123" s="2"/>
+      <c r="E123" s="57"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E124" s="2"/>
+      <c r="E124" s="57"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E125" s="2"/>
+      <c r="E125" s="57"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E126" s="2"/>
+      <c r="E126" s="57"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E127" s="2"/>
+      <c r="E127" s="57"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E128" s="2"/>
+      <c r="E128" s="57"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E129" s="2"/>
+      <c r="E129" s="57"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E130" s="2"/>
+      <c r="E130" s="57"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E131" s="2"/>
+      <c r="E131" s="57"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E132" s="2"/>
+      <c r="E132" s="57"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E133" s="2"/>
+      <c r="E133" s="57"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E134" s="2"/>
+      <c r="E134" s="57"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E135" s="2"/>
+      <c r="E135" s="57"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E136" s="2"/>
+      <c r="E136" s="57"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E137" s="2"/>
+      <c r="E137" s="57"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E138" s="2"/>
+      <c r="E138" s="57"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E139" s="2"/>
+      <c r="E139" s="57"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E140" s="2"/>
+      <c r="E140" s="57"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E141" s="2"/>
+      <c r="E141" s="57"/>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E142" s="2"/>
+      <c r="E142" s="57"/>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E143" s="2"/>
+      <c r="E143" s="57"/>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E144" s="2"/>
+      <c r="E144" s="57"/>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E145" s="2"/>
+      <c r="E145" s="57"/>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E146" s="2"/>
+      <c r="E146" s="57"/>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E147" s="2"/>
+      <c r="E147" s="57"/>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E148" s="2"/>
+      <c r="E148" s="57"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E149" s="2"/>
+      <c r="E149" s="57"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E150" s="2"/>
+      <c r="E150" s="57"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E151" s="2"/>
+      <c r="E151" s="57"/>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E152" s="2"/>
+      <c r="E152" s="57"/>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E153" s="2"/>
+      <c r="E153" s="57"/>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E154" s="2"/>
+      <c r="E154" s="57"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E155" s="2"/>
+      <c r="E155" s="57"/>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E156" s="2"/>
+      <c r="E156" s="57"/>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E157" s="2"/>
+      <c r="E157" s="57"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E158" s="2"/>
+      <c r="E158" s="57"/>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E159" s="2"/>
+      <c r="E159" s="57"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E160" s="2"/>
+      <c r="E160" s="57"/>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E161" s="2"/>
+      <c r="E161" s="57"/>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E162" s="2"/>
+      <c r="E162" s="57"/>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E163" s="2"/>
+      <c r="E163" s="57"/>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E164" s="2"/>
+      <c r="E164" s="57"/>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E165" s="2"/>
+      <c r="E165" s="57"/>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E166" s="2"/>
+      <c r="E166" s="57"/>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E167" s="2"/>
+      <c r="E167" s="57"/>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E168" s="2"/>
+      <c r="E168" s="57"/>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E169" s="2"/>
+      <c r="E169" s="57"/>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E170" s="2"/>
+      <c r="E170" s="57"/>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E171" s="2"/>
+      <c r="E171" s="57"/>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E172" s="2"/>
+      <c r="E172" s="57"/>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E173" s="2"/>
+      <c r="E173" s="57"/>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E174" s="2"/>
+      <c r="E174" s="57"/>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E175" s="2"/>
+      <c r="E175" s="57"/>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E176" s="2"/>
+      <c r="E176" s="57"/>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E177" s="2"/>
+      <c r="E177" s="57"/>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E178" s="2"/>
+      <c r="E178" s="57"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E179" s="2"/>
+      <c r="E179" s="57"/>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E180" s="2"/>
+      <c r="E180" s="57"/>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E181" s="2"/>
+      <c r="E181" s="57"/>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E182" s="2"/>
+      <c r="E182" s="57"/>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E183" s="2"/>
+      <c r="E183" s="57"/>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E184" s="2"/>
+      <c r="E184" s="57"/>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E185" s="2"/>
+      <c r="E185" s="57"/>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E186" s="2"/>
+      <c r="E186" s="57"/>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E187" s="2"/>
+      <c r="E187" s="57"/>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E188" s="2"/>
+      <c r="E188" s="57"/>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E189" s="2"/>
+      <c r="E189" s="57"/>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E190" s="2"/>
+      <c r="E190" s="57"/>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E191" s="2"/>
+      <c r="E191" s="57"/>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E192" s="2"/>
+      <c r="E192" s="57"/>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E193" s="2"/>
+      <c r="E193" s="57"/>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E194" s="2"/>
+      <c r="E194" s="57"/>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E195" s="2"/>
+      <c r="E195" s="57"/>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E196" s="2"/>
+      <c r="E196" s="57"/>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E197" s="2"/>
+      <c r="E197" s="57"/>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E198" s="2"/>
+      <c r="E198" s="57"/>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E199" s="2"/>
+      <c r="E199" s="57"/>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E200" s="2"/>
+      <c r="E200" s="57"/>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E201" s="2"/>
+      <c r="E201" s="57"/>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E202" s="2"/>
+      <c r="E202" s="57"/>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E203" s="2"/>
+      <c r="E203" s="57"/>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E204" s="2"/>
+      <c r="E204" s="57"/>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E205" s="2"/>
+      <c r="E205" s="57"/>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E206" s="2"/>
+      <c r="E206" s="57"/>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E207" s="2"/>
+      <c r="E207" s="57"/>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E208" s="2"/>
+      <c r="E208" s="57"/>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E209" s="2"/>
+      <c r="E209" s="57"/>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E210" s="2"/>
+      <c r="E210" s="57"/>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E211" s="2"/>
+      <c r="E211" s="57"/>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E212" s="2"/>
+      <c r="E212" s="57"/>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E213" s="2"/>
+      <c r="E213" s="57"/>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E214" s="2"/>
+      <c r="E214" s="57"/>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E215" s="2"/>
+      <c r="E215" s="57"/>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E216" s="2"/>
+      <c r="E216" s="57"/>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E217" s="2"/>
+      <c r="E217" s="57"/>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E218" s="2"/>
+      <c r="E218" s="57"/>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E219" s="2"/>
+      <c r="E219" s="57"/>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E220" s="2"/>
+      <c r="E220" s="57"/>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E221" s="2"/>
+      <c r="E221" s="57"/>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E222" s="2"/>
+      <c r="E222" s="57"/>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E223" s="2"/>
+      <c r="E223" s="57"/>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E224" s="2"/>
+      <c r="E224" s="57"/>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E225" s="2"/>
+      <c r="E225" s="57"/>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E226" s="2"/>
+      <c r="E226" s="57"/>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E227" s="2"/>
+      <c r="E227" s="57"/>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E228" s="2"/>
+      <c r="E228" s="57"/>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E229" s="2"/>
+      <c r="E229" s="57"/>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E230" s="2"/>
+      <c r="E230" s="57"/>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E231" s="2"/>
+      <c r="E231" s="57"/>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E232" s="2"/>
+      <c r="E232" s="57"/>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E233" s="2"/>
+      <c r="E233" s="57"/>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E234" s="2"/>
+      <c r="E234" s="57"/>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E235" s="2"/>
+      <c r="E235" s="57"/>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E236" s="2"/>
+      <c r="E236" s="57"/>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E237" s="2"/>
+      <c r="E237" s="57"/>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E238" s="2"/>
+      <c r="E238" s="57"/>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E239" s="2"/>
+      <c r="E239" s="57"/>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E240" s="2"/>
+      <c r="E240" s="57"/>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E241" s="2"/>
+      <c r="E241" s="57"/>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E242" s="2"/>
+      <c r="E242" s="57"/>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E243" s="2"/>
+      <c r="E243" s="57"/>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E244" s="2"/>
+      <c r="E244" s="57"/>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E245" s="2"/>
+      <c r="E245" s="57"/>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E246" s="2"/>
+      <c r="E246" s="57"/>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E247" s="2"/>
+      <c r="E247" s="57"/>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E248" s="2"/>
+      <c r="E248" s="57"/>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E249" s="2"/>
+      <c r="E249" s="57"/>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E250" s="2"/>
+      <c r="E250" s="57"/>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E251" s="2"/>
+      <c r="E251" s="57"/>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E252" s="2"/>
+      <c r="E252" s="57"/>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E253" s="2"/>
+      <c r="E253" s="57"/>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E254" s="2"/>
+      <c r="E254" s="57"/>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E255" s="2"/>
+      <c r="E255" s="57"/>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E256" s="2"/>
+      <c r="E256" s="57"/>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E257" s="2"/>
+      <c r="E257" s="57"/>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E258" s="2"/>
+      <c r="E258" s="57"/>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E259" s="2"/>
+      <c r="E259" s="57"/>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E260" s="2"/>
+      <c r="E260" s="57"/>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E261" s="2"/>
+      <c r="E261" s="57"/>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E262" s="2"/>
+      <c r="E262" s="57"/>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E263" s="2"/>
+      <c r="E263" s="57"/>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E264" s="2"/>
+      <c r="E264" s="57"/>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E265" s="2"/>
+      <c r="E265" s="57"/>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E266" s="2"/>
+      <c r="E266" s="57"/>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E267" s="2"/>
+      <c r="E267" s="57"/>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E268" s="2"/>
+      <c r="E268" s="57"/>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E269" s="2"/>
+      <c r="E269" s="57"/>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E270" s="2"/>
+      <c r="E270" s="57"/>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E271" s="2"/>
+      <c r="E271" s="57"/>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E272" s="2"/>
+      <c r="E272" s="57"/>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E273" s="2"/>
+      <c r="E273" s="57"/>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E274" s="2"/>
+      <c r="E274" s="57"/>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E275" s="2"/>
+      <c r="E275" s="57"/>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E276" s="2"/>
+      <c r="E276" s="57"/>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E277" s="2"/>
+      <c r="E277" s="57"/>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E278" s="2"/>
+      <c r="E278" s="57"/>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E279" s="2"/>
+      <c r="E279" s="57"/>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E280" s="2"/>
+      <c r="E280" s="57"/>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E281" s="2"/>
+      <c r="E281" s="57"/>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E282" s="2"/>
+      <c r="E282" s="57"/>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E283" s="2"/>
+      <c r="E283" s="57"/>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E284" s="2"/>
+      <c r="E284" s="57"/>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E285" s="2"/>
+      <c r="E285" s="57"/>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E286" s="2"/>
+      <c r="E286" s="57"/>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E287" s="2"/>
+      <c r="E287" s="57"/>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E288" s="2"/>
+      <c r="E288" s="57"/>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E289" s="2"/>
+      <c r="E289" s="57"/>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E290" s="2"/>
+      <c r="E290" s="57"/>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E291" s="2"/>
+      <c r="E291" s="57"/>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E292" s="2"/>
+      <c r="E292" s="57"/>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E293" s="2"/>
+      <c r="E293" s="57"/>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E294" s="2"/>
+      <c r="E294" s="57"/>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E295" s="2"/>
+      <c r="E295" s="57"/>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E296" s="2"/>
+      <c r="E296" s="57"/>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E297" s="2"/>
+      <c r="E297" s="57"/>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E298" s="2"/>
+      <c r="E298" s="57"/>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E299" s="2"/>
+      <c r="E299" s="57"/>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E300" s="2"/>
+      <c r="E300" s="57"/>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E301" s="2"/>
+      <c r="E301" s="57"/>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E302" s="2"/>
+      <c r="E302" s="57"/>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E303" s="2"/>
+      <c r="E303" s="57"/>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E304" s="2"/>
+      <c r="E304" s="57"/>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E305" s="2"/>
+      <c r="E305" s="57"/>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E306" s="2"/>
+      <c r="E306" s="57"/>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E307" s="2"/>
+      <c r="E307" s="57"/>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E308" s="2"/>
+      <c r="E308" s="57"/>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E309" s="2"/>
+      <c r="E309" s="57"/>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E310" s="2"/>
+      <c r="E310" s="57"/>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E311" s="2"/>
+      <c r="E311" s="57"/>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E312" s="2"/>
+      <c r="E312" s="57"/>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E313" s="2"/>
+      <c r="E313" s="57"/>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E314" s="2"/>
+      <c r="E314" s="57"/>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E315" s="2"/>
+      <c r="E315" s="57"/>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E316" s="2"/>
+      <c r="E316" s="57"/>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E317" s="2"/>
+      <c r="E317" s="57"/>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E318" s="2"/>
+      <c r="E318" s="57"/>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E319" s="2"/>
+      <c r="E319" s="57"/>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E320" s="2"/>
+      <c r="E320" s="57"/>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E321" s="2"/>
+      <c r="E321" s="57"/>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E322" s="2"/>
+      <c r="E322" s="57"/>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E323" s="2"/>
+      <c r="E323" s="57"/>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E324" s="2"/>
+      <c r="E324" s="57"/>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E325" s="2"/>
+      <c r="E325" s="57"/>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E326" s="2"/>
+      <c r="E326" s="57"/>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E327" s="2"/>
+      <c r="E327" s="57"/>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E328" s="2"/>
+      <c r="E328" s="57"/>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E329" s="2"/>
+      <c r="E329" s="57"/>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E330" s="2"/>
+      <c r="E330" s="57"/>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E331" s="2"/>
+      <c r="E331" s="57"/>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E332" s="2"/>
+      <c r="E332" s="57"/>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E333" s="2"/>
+      <c r="E333" s="57"/>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E334" s="2"/>
+      <c r="E334" s="57"/>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E335" s="2"/>
+      <c r="E335" s="57"/>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E336" s="2"/>
+      <c r="E336" s="57"/>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E337" s="2"/>
+      <c r="E337" s="57"/>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E338" s="2"/>
+      <c r="E338" s="57"/>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E339" s="2"/>
+      <c r="E339" s="57"/>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E340" s="2"/>
+      <c r="E340" s="57"/>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E341" s="2"/>
+      <c r="E341" s="57"/>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E342" s="2"/>
+      <c r="E342" s="57"/>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E343" s="2"/>
+      <c r="E343" s="57"/>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E344" s="2"/>
+      <c r="E344" s="57"/>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E345" s="2"/>
+      <c r="E345" s="57"/>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E346" s="2"/>
+      <c r="E346" s="57"/>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E347" s="2"/>
+      <c r="E347" s="57"/>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E348" s="2"/>
+      <c r="E348" s="57"/>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E349" s="2"/>
+      <c r="E349" s="57"/>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E350" s="2"/>
+      <c r="E350" s="57"/>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E351" s="2"/>
+      <c r="E351" s="57"/>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E352" s="2"/>
+      <c r="E352" s="57"/>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E353" s="2"/>
+      <c r="E353" s="57"/>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E354" s="2"/>
+      <c r="E354" s="57"/>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E355" s="2"/>
+      <c r="E355" s="57"/>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E356" s="2"/>
+      <c r="E356" s="57"/>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E357" s="2"/>
+      <c r="E357" s="57"/>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E358" s="2"/>
+      <c r="E358" s="57"/>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E359" s="2"/>
+      <c r="E359" s="57"/>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E360" s="2"/>
+      <c r="E360" s="57"/>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E361" s="2"/>
+      <c r="E361" s="57"/>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E362" s="2"/>
+      <c r="E362" s="57"/>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E363" s="2"/>
+      <c r="E363" s="57"/>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E364" s="2"/>
+      <c r="E364" s="57"/>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E365" s="2"/>
+      <c r="E365" s="57"/>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E366" s="2"/>
+      <c r="E366" s="57"/>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E367" s="2"/>
+      <c r="E367" s="57"/>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E368" s="2"/>
+      <c r="E368" s="57"/>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E369" s="2"/>
+      <c r="E369" s="57"/>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E370" s="2"/>
+      <c r="E370" s="57"/>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E371" s="2"/>
+      <c r="E371" s="57"/>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E372" s="2"/>
+      <c r="E372" s="57"/>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E373" s="2"/>
+      <c r="E373" s="57"/>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E374" s="2"/>
+      <c r="E374" s="57"/>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E375" s="2"/>
+      <c r="E375" s="57"/>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E376" s="2"/>
+      <c r="E376" s="57"/>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E377" s="2"/>
+      <c r="E377" s="57"/>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E378" s="2"/>
+      <c r="E378" s="57"/>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E379" s="2"/>
+      <c r="E379" s="57"/>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E380" s="2"/>
+      <c r="E380" s="57"/>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E381" s="2"/>
+      <c r="E381" s="57"/>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E382" s="2"/>
+      <c r="E382" s="57"/>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E383" s="2"/>
+      <c r="E383" s="57"/>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E384" s="2"/>
+      <c r="E384" s="57"/>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E385" s="2"/>
+      <c r="E385" s="57"/>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E386" s="2"/>
+      <c r="E386" s="57"/>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E387" s="2"/>
+      <c r="E387" s="57"/>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E388" s="2"/>
+      <c r="E388" s="57"/>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E389" s="2"/>
+      <c r="E389" s="57"/>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E390" s="2"/>
+      <c r="E390" s="57"/>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E391" s="2"/>
+      <c r="E391" s="57"/>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E392" s="2"/>
+      <c r="E392" s="57"/>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E393" s="2"/>
+      <c r="E393" s="57"/>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E394" s="2"/>
+      <c r="E394" s="57"/>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E395" s="2"/>
+      <c r="E395" s="57"/>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E396" s="2"/>
+      <c r="E396" s="57"/>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E397" s="2"/>
+      <c r="E397" s="57"/>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E398" s="2"/>
+      <c r="E398" s="57"/>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E399" s="2"/>
+      <c r="E399" s="57"/>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E400" s="2"/>
+      <c r="E400" s="57"/>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E401" s="2"/>
+      <c r="E401" s="57"/>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E402" s="2"/>
+      <c r="E402" s="57"/>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E403" s="2"/>
+      <c r="E403" s="57"/>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E404" s="2"/>
+      <c r="E404" s="57"/>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E405" s="2"/>
+      <c r="E405" s="57"/>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E406" s="2"/>
+      <c r="E406" s="57"/>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E407" s="2"/>
+      <c r="E407" s="57"/>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E408" s="2"/>
+      <c r="E408" s="57"/>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E409" s="2"/>
+      <c r="E409" s="57"/>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E410" s="2"/>
+      <c r="E410" s="57"/>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E411" s="2"/>
+      <c r="E411" s="57"/>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E412" s="2"/>
+      <c r="E412" s="57"/>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E413" s="2"/>
+      <c r="E413" s="57"/>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E414" s="2"/>
+      <c r="E414" s="57"/>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E415" s="2"/>
+      <c r="E415" s="57"/>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E416" s="2"/>
+      <c r="E416" s="57"/>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E417" s="2"/>
+      <c r="E417" s="57"/>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E418" s="2"/>
+      <c r="E418" s="57"/>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E419" s="2"/>
+      <c r="E419" s="57"/>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E420" s="2"/>
+      <c r="E420" s="57"/>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E421" s="2"/>
+      <c r="E421" s="57"/>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E422" s="2"/>
+      <c r="E422" s="57"/>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E423" s="2"/>
+      <c r="E423" s="57"/>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E424" s="2"/>
+      <c r="E424" s="57"/>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E425" s="2"/>
+      <c r="E425" s="57"/>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E426" s="2"/>
+      <c r="E426" s="57"/>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E427" s="2"/>
+      <c r="E427" s="57"/>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E428" s="2"/>
+      <c r="E428" s="57"/>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E429" s="2"/>
+      <c r="E429" s="57"/>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E430" s="2"/>
+      <c r="E430" s="57"/>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E431" s="2"/>
+      <c r="E431" s="57"/>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E432" s="2"/>
+      <c r="E432" s="57"/>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E433" s="2"/>
+      <c r="E433" s="57"/>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E434" s="2"/>
+      <c r="E434" s="57"/>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E435" s="2"/>
+      <c r="E435" s="57"/>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E436" s="2"/>
+      <c r="E436" s="57"/>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E437" s="2"/>
+      <c r="E437" s="57"/>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E438" s="2"/>
+      <c r="E438" s="57"/>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E439" s="2"/>
+      <c r="E439" s="57"/>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E440" s="2"/>
+      <c r="E440" s="57"/>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E441" s="2"/>
+      <c r="E441" s="57"/>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E442" s="2"/>
+      <c r="E442" s="57"/>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E443" s="2"/>
+      <c r="E443" s="57"/>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E444" s="2"/>
+      <c r="E444" s="57"/>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E445" s="2"/>
+      <c r="E445" s="57"/>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E446" s="2"/>
+      <c r="E446" s="57"/>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E447" s="2"/>
+      <c r="E447" s="57"/>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E448" s="2"/>
+      <c r="E448" s="57"/>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E449" s="2"/>
+      <c r="E449" s="57"/>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E450" s="2"/>
+      <c r="E450" s="57"/>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E451" s="2"/>
+      <c r="E451" s="57"/>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E452" s="2"/>
+      <c r="E452" s="57"/>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E453" s="2"/>
+      <c r="E453" s="57"/>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E454" s="2"/>
+      <c r="E454" s="57"/>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E455" s="2"/>
+      <c r="E455" s="57"/>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E456" s="2"/>
+      <c r="E456" s="57"/>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E457" s="2"/>
+      <c r="E457" s="57"/>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E458" s="2"/>
+      <c r="E458" s="57"/>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E459" s="2"/>
+      <c r="E459" s="57"/>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E460" s="2"/>
+      <c r="E460" s="57"/>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E461" s="2"/>
+      <c r="E461" s="57"/>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E462" s="2"/>
+      <c r="E462" s="57"/>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E463" s="2"/>
+      <c r="E463" s="57"/>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E464" s="2"/>
+      <c r="E464" s="57"/>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E465" s="2"/>
+      <c r="E465" s="57"/>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E466" s="2"/>
+      <c r="E466" s="57"/>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E467" s="2"/>
+      <c r="E467" s="57"/>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E468" s="2"/>
+      <c r="E468" s="57"/>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E469" s="2"/>
+      <c r="E469" s="57"/>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E470" s="2"/>
+      <c r="E470" s="57"/>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E471" s="2"/>
+      <c r="E471" s="57"/>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E472" s="2"/>
+      <c r="E472" s="57"/>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E473" s="2"/>
+      <c r="E473" s="57"/>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E474" s="2"/>
+      <c r="E474" s="57"/>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E475" s="2"/>
+      <c r="E475" s="57"/>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E476" s="2"/>
+      <c r="E476" s="57"/>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E477" s="2"/>
+      <c r="E477" s="57"/>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E478" s="2"/>
+      <c r="E478" s="57"/>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E479" s="2"/>
+      <c r="E479" s="57"/>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E480" s="2"/>
+      <c r="E480" s="57"/>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E481" s="2"/>
+      <c r="E481" s="57"/>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E482" s="2"/>
+      <c r="E482" s="57"/>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E483" s="2"/>
+      <c r="E483" s="57"/>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E484" s="2"/>
+      <c r="E484" s="57"/>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E485" s="2"/>
+      <c r="E485" s="57"/>
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E486" s="2"/>
+      <c r="E486" s="57"/>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E487" s="2"/>
+      <c r="E487" s="57"/>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E488" s="2"/>
+      <c r="E488" s="57"/>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E489" s="2"/>
+      <c r="E489" s="57"/>
     </row>
     <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E490" s="2"/>
+      <c r="E490" s="57"/>
     </row>
     <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E491" s="2"/>
+      <c r="E491" s="57"/>
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E492" s="2"/>
+      <c r="E492" s="57"/>
     </row>
     <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E493" s="2"/>
+      <c r="E493" s="57"/>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E494" s="2"/>
+      <c r="E494" s="57"/>
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E495" s="2"/>
+      <c r="E495" s="57"/>
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E496" s="2"/>
+      <c r="E496" s="57"/>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E497" s="2"/>
+      <c r="E497" s="57"/>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E498" s="2"/>
+      <c r="E498" s="57"/>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E499" s="2"/>
+      <c r="E499" s="57"/>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E500" s="2"/>
+      <c r="E500" s="57"/>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E501" s="2"/>
+      <c r="E501" s="57"/>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E502" s="2"/>
+      <c r="E502" s="57"/>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E503" s="2"/>
+      <c r="E503" s="57"/>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E504" s="2"/>
+      <c r="E504" s="57"/>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E505" s="2"/>
+      <c r="E505" s="57"/>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E506" s="2"/>
+      <c r="E506" s="57"/>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E507" s="2"/>
+      <c r="E507" s="57"/>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E508" s="2"/>
+      <c r="E508" s="57"/>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E509" s="2"/>
+      <c r="E509" s="57"/>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E510" s="2"/>
+      <c r="E510" s="57"/>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E511" s="2"/>
+      <c r="E511" s="57"/>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E512" s="2"/>
+      <c r="E512" s="57"/>
     </row>
     <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E513" s="2"/>
+      <c r="E513" s="57"/>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E514" s="2"/>
+      <c r="E514" s="57"/>
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E515" s="2"/>
+      <c r="E515" s="57"/>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E516" s="2"/>
+      <c r="E516" s="57"/>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E517" s="2"/>
+      <c r="E517" s="57"/>
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E518" s="2"/>
+      <c r="E518" s="57"/>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E519" s="2"/>
+      <c r="E519" s="57"/>
     </row>
     <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E520" s="2"/>
+      <c r="E520" s="57"/>
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E521" s="2"/>
+      <c r="E521" s="57"/>
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E522" s="2"/>
+      <c r="E522" s="57"/>
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E523" s="2"/>
+      <c r="E523" s="57"/>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E524" s="2"/>
+      <c r="E524" s="57"/>
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E525" s="2"/>
+      <c r="E525" s="57"/>
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E526" s="2"/>
+      <c r="E526" s="57"/>
     </row>
     <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E527" s="2"/>
+      <c r="E527" s="57"/>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E528" s="2"/>
+      <c r="E528" s="57"/>
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E529" s="2"/>
+      <c r="E529" s="57"/>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E530" s="2"/>
+      <c r="E530" s="57"/>
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E531" s="2"/>
+      <c r="E531" s="57"/>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E532" s="2"/>
+      <c r="E532" s="57"/>
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E533" s="2"/>
+      <c r="E533" s="57"/>
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E534" s="2"/>
+      <c r="E534" s="57"/>
     </row>
     <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E535" s="2"/>
+      <c r="E535" s="57"/>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E536" s="2"/>
+      <c r="E536" s="57"/>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E537" s="2"/>
+      <c r="E537" s="57"/>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E538" s="2"/>
+      <c r="E538" s="57"/>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E539" s="2"/>
+      <c r="E539" s="57"/>
     </row>
     <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E540" s="2"/>
+      <c r="E540" s="57"/>
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E541" s="2"/>
+      <c r="E541" s="57"/>
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E542" s="2"/>
+      <c r="E542" s="57"/>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E543" s="2"/>
+      <c r="E543" s="57"/>
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E544" s="2"/>
+      <c r="E544" s="57"/>
     </row>
     <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E545" s="2"/>
+      <c r="E545" s="57"/>
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E546" s="2"/>
+      <c r="E546" s="57"/>
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E547" s="2"/>
+      <c r="E547" s="57"/>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E548" s="2"/>
+      <c r="E548" s="57"/>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E549" s="2"/>
+      <c r="E549" s="57"/>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E550" s="2"/>
+      <c r="E550" s="57"/>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E551" s="2"/>
+      <c r="E551" s="57"/>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E552" s="2"/>
+      <c r="E552" s="57"/>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E553" s="2"/>
+      <c r="E553" s="57"/>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E554" s="2"/>
+      <c r="E554" s="57"/>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E555" s="2"/>
+      <c r="E555" s="57"/>
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E556" s="2"/>
+      <c r="E556" s="57"/>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E557" s="2"/>
+      <c r="E557" s="57"/>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E558" s="2"/>
+      <c r="E558" s="57"/>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E559" s="2"/>
+      <c r="E559" s="57"/>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E560" s="2"/>
+      <c r="E560" s="57"/>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E561" s="2"/>
+      <c r="E561" s="57"/>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E562" s="2"/>
+      <c r="E562" s="57"/>
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E563" s="2"/>
+      <c r="E563" s="57"/>
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E564" s="2"/>
+      <c r="E564" s="57"/>
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E565" s="2"/>
+      <c r="E565" s="57"/>
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E566" s="2"/>
+      <c r="E566" s="57"/>
     </row>
     <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E567" s="2"/>
+      <c r="E567" s="57"/>
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E568" s="2"/>
+      <c r="E568" s="57"/>
     </row>
     <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E569" s="2"/>
+      <c r="E569" s="57"/>
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E570" s="2"/>
+      <c r="E570" s="57"/>
     </row>
     <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E571" s="2"/>
+      <c r="E571" s="57"/>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E572" s="2"/>
+      <c r="E572" s="57"/>
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E573" s="2"/>
+      <c r="E573" s="57"/>
     </row>
     <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E574" s="2"/>
+      <c r="E574" s="57"/>
     </row>
     <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E575" s="2"/>
+      <c r="E575" s="57"/>
     </row>
     <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E576" s="2"/>
+      <c r="E576" s="57"/>
     </row>
     <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E577" s="2"/>
+      <c r="E577" s="57"/>
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E578" s="2"/>
+      <c r="E578" s="57"/>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E579" s="2"/>
+      <c r="E579" s="57"/>
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E580" s="2"/>
+      <c r="E580" s="57"/>
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E581" s="2"/>
+      <c r="E581" s="57"/>
     </row>
     <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E582" s="2"/>
+      <c r="E582" s="57"/>
     </row>
     <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E583" s="2"/>
+      <c r="E583" s="57"/>
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E584" s="2"/>
+      <c r="E584" s="57"/>
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E585" s="2"/>
+      <c r="E585" s="57"/>
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E586" s="2"/>
+      <c r="E586" s="57"/>
     </row>
     <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E587" s="2"/>
+      <c r="E587" s="57"/>
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E588" s="2"/>
+      <c r="E588" s="57"/>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E589" s="2"/>
+      <c r="E589" s="57"/>
     </row>
     <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E590" s="2"/>
+      <c r="E590" s="57"/>
     </row>
     <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E591" s="2"/>
+      <c r="E591" s="57"/>
     </row>
     <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E592" s="2"/>
+      <c r="E592" s="57"/>
     </row>
     <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E593" s="2"/>
+      <c r="E593" s="57"/>
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E594" s="2"/>
+      <c r="E594" s="57"/>
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E595" s="2"/>
+      <c r="E595" s="57"/>
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E596" s="2"/>
+      <c r="E596" s="57"/>
     </row>
     <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E597" s="2"/>
+      <c r="E597" s="57"/>
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E598" s="2"/>
+      <c r="E598" s="57"/>
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E599" s="2"/>
+      <c r="E599" s="57"/>
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E600" s="2"/>
+      <c r="E600" s="57"/>
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E601" s="2"/>
+      <c r="E601" s="57"/>
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E602" s="2"/>
+      <c r="E602" s="57"/>
     </row>
     <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E603" s="2"/>
+      <c r="E603" s="57"/>
     </row>
     <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E604" s="2"/>
+      <c r="E604" s="57"/>
     </row>
     <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E605" s="2"/>
+      <c r="E605" s="57"/>
     </row>
     <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E606" s="2"/>
+      <c r="E606" s="57"/>
     </row>
     <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E607" s="2"/>
+      <c r="E607" s="57"/>
     </row>
     <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E608" s="2"/>
+      <c r="E608" s="57"/>
     </row>
     <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E609" s="2"/>
+      <c r="E609" s="57"/>
     </row>
     <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E610" s="2"/>
+      <c r="E610" s="57"/>
     </row>
     <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E611" s="2"/>
+      <c r="E611" s="57"/>
     </row>
     <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E612" s="2"/>
+      <c r="E612" s="57"/>
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E613" s="2"/>
+      <c r="E613" s="57"/>
     </row>
     <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E614" s="2"/>
+      <c r="E614" s="57"/>
     </row>
     <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E615" s="2"/>
+      <c r="E615" s="57"/>
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E616" s="2"/>
+      <c r="E616" s="57"/>
     </row>
     <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E617" s="2"/>
+      <c r="E617" s="57"/>
     </row>
     <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E618" s="2"/>
+      <c r="E618" s="57"/>
     </row>
     <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E619" s="2"/>
+      <c r="E619" s="57"/>
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E620" s="2"/>
+      <c r="E620" s="57"/>
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E621" s="2"/>
+      <c r="E621" s="57"/>
     </row>
     <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E622" s="2"/>
+      <c r="E622" s="57"/>
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E623" s="2"/>
+      <c r="E623" s="57"/>
     </row>
     <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E624" s="2"/>
+      <c r="E624" s="57"/>
     </row>
     <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E625" s="2"/>
+      <c r="E625" s="57"/>
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E626" s="2"/>
+      <c r="E626" s="57"/>
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E627" s="2"/>
+      <c r="E627" s="57"/>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E628" s="2"/>
+      <c r="E628" s="57"/>
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E629" s="2"/>
+      <c r="E629" s="57"/>
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E630" s="2"/>
+      <c r="E630" s="57"/>
     </row>
     <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E631" s="2"/>
+      <c r="E631" s="57"/>
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E632" s="2"/>
+      <c r="E632" s="57"/>
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E633" s="2"/>
+      <c r="E633" s="57"/>
     </row>
     <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E634" s="2"/>
+      <c r="E634" s="57"/>
     </row>
     <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E635" s="2"/>
+      <c r="E635" s="57"/>
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E636" s="2"/>
+      <c r="E636" s="57"/>
     </row>
     <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E637" s="2"/>
+      <c r="E637" s="57"/>
     </row>
     <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E638" s="2"/>
+      <c r="E638" s="57"/>
     </row>
     <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E639" s="2"/>
+      <c r="E639" s="57"/>
     </row>
     <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E640" s="2"/>
+      <c r="E640" s="57"/>
     </row>
     <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E641" s="2"/>
+      <c r="E641" s="57"/>
     </row>
     <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E642" s="2"/>
+      <c r="E642" s="57"/>
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E643" s="2"/>
+      <c r="E643" s="57"/>
     </row>
     <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E644" s="2"/>
+      <c r="E644" s="57"/>
     </row>
     <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E645" s="2"/>
+      <c r="E645" s="57"/>
     </row>
     <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E646" s="2"/>
+      <c r="E646" s="57"/>
     </row>
     <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E647" s="2"/>
+      <c r="E647" s="57"/>
     </row>
     <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E648" s="2"/>
+      <c r="E648" s="57"/>
     </row>
     <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E649" s="2"/>
+      <c r="E649" s="57"/>
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E650" s="2"/>
+      <c r="E650" s="57"/>
     </row>
     <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E651" s="2"/>
+      <c r="E651" s="57"/>
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E652" s="2"/>
+      <c r="E652" s="57"/>
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E653" s="2"/>
+      <c r="E653" s="57"/>
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E654" s="2"/>
+      <c r="E654" s="57"/>
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E655" s="2"/>
+      <c r="E655" s="57"/>
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E656" s="2"/>
+      <c r="E656" s="57"/>
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E657" s="2"/>
+      <c r="E657" s="57"/>
     </row>
     <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E658" s="2"/>
+      <c r="E658" s="57"/>
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E659" s="2"/>
+      <c r="E659" s="57"/>
     </row>
     <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E660" s="2"/>
+      <c r="E660" s="57"/>
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E661" s="2"/>
+      <c r="E661" s="57"/>
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E662" s="2"/>
+      <c r="E662" s="57"/>
     </row>
     <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E663" s="2"/>
+      <c r="E663" s="57"/>
     </row>
     <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E664" s="2"/>
+      <c r="E664" s="57"/>
     </row>
     <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E665" s="2"/>
+      <c r="E665" s="57"/>
     </row>
     <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E666" s="2"/>
+      <c r="E666" s="57"/>
     </row>
     <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E667" s="2"/>
+      <c r="E667" s="57"/>
     </row>
     <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E668" s="2"/>
+      <c r="E668" s="57"/>
     </row>
     <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E669" s="2"/>
+      <c r="E669" s="57"/>
     </row>
     <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E670" s="2"/>
+      <c r="E670" s="57"/>
     </row>
     <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E671" s="2"/>
+      <c r="E671" s="57"/>
     </row>
     <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E672" s="2"/>
+      <c r="E672" s="57"/>
     </row>
     <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E673" s="2"/>
+      <c r="E673" s="57"/>
     </row>
     <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E674" s="2"/>
+      <c r="E674" s="57"/>
     </row>
     <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E675" s="2"/>
+      <c r="E675" s="57"/>
     </row>
     <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E676" s="2"/>
+      <c r="E676" s="57"/>
     </row>
     <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E677" s="2"/>
+      <c r="E677" s="57"/>
     </row>
     <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E678" s="2"/>
+      <c r="E678" s="57"/>
     </row>
     <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E679" s="2"/>
+      <c r="E679" s="57"/>
     </row>
     <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E680" s="2"/>
+      <c r="E680" s="57"/>
     </row>
     <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E681" s="2"/>
+      <c r="E681" s="57"/>
     </row>
     <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E682" s="2"/>
+      <c r="E682" s="57"/>
     </row>
     <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E683" s="2"/>
+      <c r="E683" s="57"/>
     </row>
     <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E684" s="2"/>
+      <c r="E684" s="57"/>
     </row>
     <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E685" s="2"/>
+      <c r="E685" s="57"/>
     </row>
     <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E686" s="2"/>
+      <c r="E686" s="57"/>
     </row>
     <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E687" s="2"/>
+      <c r="E687" s="57"/>
     </row>
     <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E688" s="2"/>
+      <c r="E688" s="57"/>
     </row>
     <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E689" s="2"/>
+      <c r="E689" s="57"/>
     </row>
     <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E690" s="2"/>
+      <c r="E690" s="57"/>
     </row>
     <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E691" s="2"/>
+      <c r="E691" s="57"/>
     </row>
     <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E692" s="2"/>
+      <c r="E692" s="57"/>
     </row>
     <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E693" s="2"/>
+      <c r="E693" s="57"/>
     </row>
     <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E694" s="2"/>
+      <c r="E694" s="57"/>
     </row>
     <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E695" s="2"/>
+      <c r="E695" s="57"/>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E696" s="2"/>
+      <c r="E696" s="57"/>
     </row>
     <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E697" s="2"/>
+      <c r="E697" s="57"/>
     </row>
     <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E698" s="2"/>
+      <c r="E698" s="57"/>
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E699" s="2"/>
+      <c r="E699" s="57"/>
     </row>
     <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E700" s="2"/>
+      <c r="E700" s="57"/>
     </row>
     <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E701" s="2"/>
+      <c r="E701" s="57"/>
     </row>
     <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E702" s="2"/>
+      <c r="E702" s="57"/>
     </row>
     <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E703" s="2"/>
+      <c r="E703" s="57"/>
     </row>
     <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E704" s="2"/>
+      <c r="E704" s="57"/>
     </row>
     <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E705" s="2"/>
+      <c r="E705" s="57"/>
     </row>
     <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E706" s="2"/>
+      <c r="E706" s="57"/>
     </row>
     <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E707" s="2"/>
+      <c r="E707" s="57"/>
     </row>
     <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E708" s="2"/>
+      <c r="E708" s="57"/>
     </row>
     <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E709" s="2"/>
+      <c r="E709" s="57"/>
     </row>
     <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E710" s="2"/>
+      <c r="E710" s="57"/>
     </row>
     <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E711" s="2"/>
+      <c r="E711" s="57"/>
     </row>
     <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E712" s="2"/>
+      <c r="E712" s="57"/>
     </row>
     <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E713" s="2"/>
+      <c r="E713" s="57"/>
     </row>
     <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E714" s="2"/>
+      <c r="E714" s="57"/>
     </row>
     <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E715" s="2"/>
+      <c r="E715" s="57"/>
     </row>
     <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E716" s="2"/>
+      <c r="E716" s="57"/>
     </row>
     <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E717" s="2"/>
+      <c r="E717" s="57"/>
     </row>
     <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E718" s="2"/>
+      <c r="E718" s="57"/>
     </row>
     <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E719" s="2"/>
+      <c r="E719" s="57"/>
     </row>
     <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E720" s="2"/>
+      <c r="E720" s="57"/>
     </row>
     <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E721" s="2"/>
+      <c r="E721" s="57"/>
     </row>
     <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E722" s="2"/>
+      <c r="E722" s="57"/>
     </row>
     <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E723" s="2"/>
+      <c r="E723" s="57"/>
     </row>
     <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E724" s="2"/>
+      <c r="E724" s="57"/>
     </row>
     <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E725" s="2"/>
+      <c r="E725" s="57"/>
     </row>
     <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E726" s="2"/>
+      <c r="E726" s="57"/>
     </row>
     <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E727" s="2"/>
+      <c r="E727" s="57"/>
     </row>
     <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E728" s="2"/>
+      <c r="E728" s="57"/>
     </row>
     <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E729" s="2"/>
+      <c r="E729" s="57"/>
     </row>
     <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E730" s="2"/>
+      <c r="E730" s="57"/>
     </row>
     <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E731" s="2"/>
+      <c r="E731" s="57"/>
     </row>
     <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E732" s="2"/>
+      <c r="E732" s="57"/>
     </row>
     <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E733" s="2"/>
+      <c r="E733" s="57"/>
     </row>
     <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E734" s="2"/>
+      <c r="E734" s="57"/>
     </row>
     <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E735" s="2"/>
+      <c r="E735" s="57"/>
     </row>
     <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E736" s="2"/>
+      <c r="E736" s="57"/>
     </row>
     <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E737" s="2"/>
+      <c r="E737" s="57"/>
     </row>
     <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E738" s="2"/>
+      <c r="E738" s="57"/>
     </row>
     <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E739" s="2"/>
+      <c r="E739" s="57"/>
     </row>
     <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E740" s="2"/>
+      <c r="E740" s="57"/>
     </row>
     <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E741" s="2"/>
+      <c r="E741" s="57"/>
     </row>
     <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E742" s="2"/>
+      <c r="E742" s="57"/>
     </row>
     <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E743" s="2"/>
+      <c r="E743" s="57"/>
     </row>
     <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E744" s="2"/>
+      <c r="E744" s="57"/>
     </row>
     <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E745" s="2"/>
+      <c r="E745" s="57"/>
     </row>
     <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E746" s="2"/>
+      <c r="E746" s="57"/>
     </row>
     <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E747" s="2"/>
+      <c r="E747" s="57"/>
     </row>
     <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E748" s="2"/>
+      <c r="E748" s="57"/>
     </row>
     <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E749" s="2"/>
+      <c r="E749" s="57"/>
     </row>
     <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E750" s="2"/>
+      <c r="E750" s="57"/>
     </row>
     <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E751" s="2"/>
+      <c r="E751" s="57"/>
     </row>
     <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E752" s="2"/>
+      <c r="E752" s="57"/>
     </row>
     <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E753" s="2"/>
+      <c r="E753" s="57"/>
     </row>
     <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E754" s="2"/>
+      <c r="E754" s="57"/>
     </row>
     <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E755" s="2"/>
+      <c r="E755" s="57"/>
     </row>
     <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E756" s="2"/>
+      <c r="E756" s="57"/>
     </row>
     <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E757" s="2"/>
+      <c r="E757" s="57"/>
     </row>
     <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E758" s="2"/>
+      <c r="E758" s="57"/>
     </row>
     <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E759" s="2"/>
+      <c r="E759" s="57"/>
     </row>
     <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E760" s="2"/>
+      <c r="E760" s="57"/>
     </row>
     <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E761" s="2"/>
+      <c r="E761" s="57"/>
     </row>
     <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E762" s="2"/>
+      <c r="E762" s="57"/>
     </row>
     <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E763" s="2"/>
+      <c r="E763" s="57"/>
     </row>
     <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E764" s="2"/>
+      <c r="E764" s="57"/>
     </row>
     <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E765" s="2"/>
+      <c r="E765" s="57"/>
     </row>
     <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E766" s="2"/>
+      <c r="E766" s="57"/>
     </row>
     <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E767" s="2"/>
+      <c r="E767" s="57"/>
     </row>
     <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E768" s="2"/>
+      <c r="E768" s="57"/>
     </row>
     <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E769" s="2"/>
+      <c r="E769" s="57"/>
     </row>
     <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E770" s="2"/>
+      <c r="E770" s="57"/>
     </row>
     <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E771" s="2"/>
+      <c r="E771" s="57"/>
     </row>
     <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E772" s="2"/>
+      <c r="E772" s="57"/>
     </row>
     <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E773" s="2"/>
+      <c r="E773" s="57"/>
     </row>
     <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E774" s="2"/>
+      <c r="E774" s="57"/>
     </row>
     <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E775" s="2"/>
+      <c r="E775" s="57"/>
     </row>
     <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E776" s="2"/>
+      <c r="E776" s="57"/>
     </row>
     <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E777" s="2"/>
+      <c r="E777" s="57"/>
     </row>
     <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E778" s="2"/>
+      <c r="E778" s="57"/>
     </row>
     <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E779" s="2"/>
+      <c r="E779" s="57"/>
     </row>
     <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E780" s="2"/>
+      <c r="E780" s="57"/>
     </row>
     <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E781" s="2"/>
+      <c r="E781" s="57"/>
     </row>
     <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E782" s="2"/>
+      <c r="E782" s="57"/>
     </row>
     <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E783" s="2"/>
+      <c r="E783" s="57"/>
     </row>
     <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E784" s="2"/>
+      <c r="E784" s="57"/>
     </row>
     <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E785" s="2"/>
+      <c r="E785" s="57"/>
     </row>
     <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E786" s="2"/>
+      <c r="E786" s="57"/>
     </row>
     <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E787" s="2"/>
+      <c r="E787" s="57"/>
     </row>
     <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E788" s="2"/>
+      <c r="E788" s="57"/>
     </row>
     <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E789" s="2"/>
+      <c r="E789" s="57"/>
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E790" s="2"/>
+      <c r="E790" s="57"/>
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E791" s="2"/>
+      <c r="E791" s="57"/>
     </row>
     <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E792" s="2"/>
+      <c r="E792" s="57"/>
     </row>
     <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E793" s="2"/>
+      <c r="E793" s="57"/>
     </row>
     <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E794" s="2"/>
+      <c r="E794" s="57"/>
     </row>
     <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E795" s="2"/>
+      <c r="E795" s="57"/>
     </row>
     <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E796" s="2"/>
+      <c r="E796" s="57"/>
     </row>
     <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E797" s="2"/>
+      <c r="E797" s="57"/>
     </row>
     <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E798" s="2"/>
+      <c r="E798" s="57"/>
     </row>
     <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E799" s="2"/>
+      <c r="E799" s="57"/>
     </row>
     <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E800" s="2"/>
+      <c r="E800" s="57"/>
     </row>
     <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E801" s="2"/>
+      <c r="E801" s="57"/>
     </row>
     <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E802" s="2"/>
+      <c r="E802" s="57"/>
     </row>
     <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E803" s="2"/>
+      <c r="E803" s="57"/>
     </row>
     <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E804" s="2"/>
+      <c r="E804" s="57"/>
     </row>
     <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E805" s="2"/>
+      <c r="E805" s="57"/>
     </row>
     <row r="806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E806" s="2"/>
+      <c r="E806" s="57"/>
     </row>
     <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E807" s="2"/>
+      <c r="E807" s="57"/>
     </row>
     <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E808" s="2"/>
+      <c r="E808" s="57"/>
     </row>
     <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E809" s="2"/>
+      <c r="E809" s="57"/>
     </row>
     <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E810" s="2"/>
+      <c r="E810" s="57"/>
     </row>
     <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E811" s="2"/>
+      <c r="E811" s="57"/>
     </row>
     <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E812" s="2"/>
+      <c r="E812" s="57"/>
     </row>
     <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E813" s="2"/>
+      <c r="E813" s="57"/>
     </row>
     <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E814" s="2"/>
+      <c r="E814" s="57"/>
     </row>
     <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E815" s="2"/>
+      <c r="E815" s="57"/>
     </row>
     <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E816" s="2"/>
+      <c r="E816" s="57"/>
     </row>
     <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E817" s="2"/>
+      <c r="E817" s="57"/>
     </row>
     <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E818" s="2"/>
+      <c r="E818" s="57"/>
     </row>
     <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E819" s="2"/>
+      <c r="E819" s="57"/>
     </row>
     <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E820" s="2"/>
+      <c r="E820" s="57"/>
     </row>
     <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E821" s="2"/>
+      <c r="E821" s="57"/>
     </row>
     <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E822" s="2"/>
+      <c r="E822" s="57"/>
     </row>
     <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E823" s="2"/>
+      <c r="E823" s="57"/>
     </row>
     <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E824" s="2"/>
+      <c r="E824" s="57"/>
     </row>
     <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E825" s="2"/>
+      <c r="E825" s="57"/>
     </row>
     <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E826" s="2"/>
+      <c r="E826" s="57"/>
     </row>
     <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E827" s="2"/>
+      <c r="E827" s="57"/>
     </row>
     <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E828" s="2"/>
+      <c r="E828" s="57"/>
     </row>
     <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E829" s="2"/>
+      <c r="E829" s="57"/>
     </row>
     <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E830" s="2"/>
+      <c r="E830" s="57"/>
     </row>
     <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E831" s="2"/>
+      <c r="E831" s="57"/>
     </row>
     <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E832" s="2"/>
+      <c r="E832" s="57"/>
     </row>
     <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E833" s="2"/>
+      <c r="E833" s="57"/>
     </row>
     <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E834" s="2"/>
+      <c r="E834" s="57"/>
     </row>
     <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E835" s="2"/>
+      <c r="E835" s="57"/>
     </row>
     <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E836" s="2"/>
+      <c r="E836" s="57"/>
     </row>
     <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E837" s="2"/>
+      <c r="E837" s="57"/>
     </row>
     <row r="838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E838" s="2"/>
+      <c r="E838" s="57"/>
     </row>
     <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E839" s="2"/>
+      <c r="E839" s="57"/>
     </row>
     <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E840" s="2"/>
+      <c r="E840" s="57"/>
     </row>
     <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E841" s="2"/>
+      <c r="E841" s="57"/>
     </row>
     <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E842" s="2"/>
+      <c r="E842" s="57"/>
     </row>
     <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E843" s="2"/>
+      <c r="E843" s="57"/>
     </row>
     <row r="844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E844" s="2"/>
+      <c r="E844" s="57"/>
     </row>
     <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E845" s="2"/>
+      <c r="E845" s="57"/>
     </row>
     <row r="846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E846" s="2"/>
+      <c r="E846" s="57"/>
     </row>
     <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E847" s="2"/>
+      <c r="E847" s="57"/>
     </row>
     <row r="848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E848" s="2"/>
+      <c r="E848" s="57"/>
     </row>
     <row r="849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E849" s="2"/>
+      <c r="E849" s="57"/>
     </row>
     <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E850" s="2"/>
+      <c r="E850" s="57"/>
     </row>
     <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E851" s="2"/>
+      <c r="E851" s="57"/>
     </row>
     <row r="852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E852" s="2"/>
+      <c r="E852" s="57"/>
     </row>
     <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E853" s="2"/>
+      <c r="E853" s="57"/>
     </row>
     <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E854" s="2"/>
+      <c r="E854" s="57"/>
     </row>
     <row r="855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E855" s="2"/>
+      <c r="E855" s="57"/>
     </row>
     <row r="856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E856" s="2"/>
+      <c r="E856" s="57"/>
     </row>
     <row r="857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E857" s="2"/>
+      <c r="E857" s="57"/>
     </row>
     <row r="858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E858" s="2"/>
+      <c r="E858" s="57"/>
     </row>
     <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E859" s="2"/>
+      <c r="E859" s="57"/>
     </row>
     <row r="860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E860" s="2"/>
+      <c r="E860" s="57"/>
     </row>
     <row r="861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E861" s="2"/>
+      <c r="E861" s="57"/>
     </row>
     <row r="862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E862" s="2"/>
+      <c r="E862" s="57"/>
     </row>
     <row r="863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E863" s="2"/>
+      <c r="E863" s="57"/>
     </row>
     <row r="864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E864" s="2"/>
+      <c r="E864" s="57"/>
     </row>
     <row r="865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E865" s="2"/>
+      <c r="E865" s="57"/>
     </row>
     <row r="866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E866" s="2"/>
+      <c r="E866" s="57"/>
     </row>
     <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E867" s="2"/>
+      <c r="E867" s="57"/>
     </row>
     <row r="868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E868" s="2"/>
+      <c r="E868" s="57"/>
     </row>
     <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E869" s="2"/>
+      <c r="E869" s="57"/>
     </row>
     <row r="870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E870" s="2"/>
+      <c r="E870" s="57"/>
     </row>
     <row r="871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E871" s="2"/>
+      <c r="E871" s="57"/>
     </row>
     <row r="872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E872" s="2"/>
+      <c r="E872" s="57"/>
     </row>
     <row r="873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E873" s="2"/>
+      <c r="E873" s="57"/>
     </row>
     <row r="874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E874" s="2"/>
+      <c r="E874" s="57"/>
     </row>
     <row r="875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E875" s="2"/>
+      <c r="E875" s="57"/>
     </row>
     <row r="876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E876" s="2"/>
+      <c r="E876" s="57"/>
     </row>
     <row r="877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E877" s="2"/>
+      <c r="E877" s="57"/>
     </row>
     <row r="878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E878" s="2"/>
+      <c r="E878" s="57"/>
     </row>
     <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E879" s="2"/>
+      <c r="E879" s="57"/>
     </row>
     <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E880" s="2"/>
+      <c r="E880" s="57"/>
     </row>
     <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E881" s="2"/>
+      <c r="E881" s="57"/>
     </row>
     <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E882" s="2"/>
+      <c r="E882" s="57"/>
     </row>
     <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E883" s="2"/>
+      <c r="E883" s="57"/>
     </row>
     <row r="884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E884" s="2"/>
+      <c r="E884" s="57"/>
     </row>
     <row r="885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E885" s="2"/>
+      <c r="E885" s="57"/>
     </row>
     <row r="886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E886" s="2"/>
+      <c r="E886" s="57"/>
     </row>
     <row r="887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E887" s="2"/>
+      <c r="E887" s="57"/>
     </row>
     <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E888" s="2"/>
+      <c r="E888" s="57"/>
     </row>
     <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E889" s="2"/>
+      <c r="E889" s="57"/>
     </row>
     <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E890" s="2"/>
+      <c r="E890" s="57"/>
     </row>
     <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E891" s="2"/>
+      <c r="E891" s="57"/>
     </row>
     <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E892" s="2"/>
+      <c r="E892" s="57"/>
     </row>
     <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E893" s="2"/>
+      <c r="E893" s="57"/>
     </row>
     <row r="894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E894" s="2"/>
+      <c r="E894" s="57"/>
     </row>
     <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E895" s="2"/>
+      <c r="E895" s="57"/>
     </row>
     <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E896" s="2"/>
+      <c r="E896" s="57"/>
     </row>
     <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E897" s="2"/>
+      <c r="E897" s="57"/>
     </row>
     <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E898" s="2"/>
+      <c r="E898" s="57"/>
     </row>
     <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E899" s="2"/>
+      <c r="E899" s="57"/>
     </row>
     <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E900" s="2"/>
+      <c r="E900" s="57"/>
     </row>
     <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E901" s="2"/>
+      <c r="E901" s="57"/>
     </row>
     <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E902" s="2"/>
+      <c r="E902" s="57"/>
     </row>
     <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E903" s="2"/>
+      <c r="E903" s="57"/>
     </row>
     <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E904" s="2"/>
+      <c r="E904" s="57"/>
     </row>
     <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E905" s="2"/>
+      <c r="E905" s="57"/>
     </row>
     <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E906" s="2"/>
+      <c r="E906" s="57"/>
     </row>
     <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E907" s="2"/>
+      <c r="E907" s="57"/>
     </row>
     <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E908" s="2"/>
+      <c r="E908" s="57"/>
     </row>
     <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E909" s="2"/>
+      <c r="E909" s="57"/>
     </row>
     <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E910" s="2"/>
+      <c r="E910" s="57"/>
     </row>
     <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E911" s="2"/>
+      <c r="E911" s="57"/>
     </row>
     <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E912" s="2"/>
+      <c r="E912" s="57"/>
     </row>
     <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E913" s="2"/>
+      <c r="E913" s="57"/>
     </row>
     <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E914" s="2"/>
+      <c r="E914" s="57"/>
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E915" s="2"/>
+      <c r="E915" s="57"/>
     </row>
     <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E916" s="2"/>
+      <c r="E916" s="57"/>
     </row>
     <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E917" s="2"/>
+      <c r="E917" s="57"/>
     </row>
     <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E918" s="2"/>
+      <c r="E918" s="57"/>
     </row>
     <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E919" s="2"/>
+      <c r="E919" s="57"/>
     </row>
     <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E920" s="2"/>
+      <c r="E920" s="57"/>
     </row>
     <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E921" s="2"/>
+      <c r="E921" s="57"/>
     </row>
     <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E922" s="2"/>
+      <c r="E922" s="57"/>
     </row>
     <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E923" s="2"/>
+      <c r="E923" s="57"/>
     </row>
     <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E924" s="2"/>
+      <c r="E924" s="57"/>
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E925" s="2"/>
+      <c r="E925" s="57"/>
     </row>
     <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E926" s="2"/>
+      <c r="E926" s="57"/>
     </row>
     <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E927" s="2"/>
+      <c r="E927" s="57"/>
     </row>
     <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E928" s="2"/>
+      <c r="E928" s="57"/>
     </row>
     <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E929" s="2"/>
+      <c r="E929" s="57"/>
     </row>
     <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E930" s="2"/>
+      <c r="E930" s="57"/>
     </row>
     <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E931" s="2"/>
+      <c r="E931" s="57"/>
     </row>
     <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E932" s="2"/>
+      <c r="E932" s="57"/>
     </row>
     <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E933" s="2"/>
+      <c r="E933" s="57"/>
     </row>
     <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E934" s="2"/>
+      <c r="E934" s="57"/>
     </row>
     <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E935" s="2"/>
+      <c r="E935" s="57"/>
     </row>
     <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E936" s="2"/>
+      <c r="E936" s="57"/>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E937" s="2"/>
+      <c r="E937" s="57"/>
     </row>
     <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E938" s="2"/>
+      <c r="E938" s="57"/>
     </row>
     <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E939" s="2"/>
+      <c r="E939" s="57"/>
     </row>
     <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E940" s="2"/>
+      <c r="E940" s="57"/>
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E941" s="2"/>
+      <c r="E941" s="57"/>
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E942" s="2"/>
+      <c r="E942" s="57"/>
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E943" s="2"/>
+      <c r="E943" s="57"/>
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E944" s="2"/>
+      <c r="E944" s="57"/>
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E945" s="2"/>
+      <c r="E945" s="57"/>
     </row>
     <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E946" s="2"/>
+      <c r="E946" s="57"/>
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E947" s="2"/>
+      <c r="E947" s="57"/>
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E948" s="2"/>
+      <c r="E948" s="57"/>
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E949" s="2"/>
+      <c r="E949" s="57"/>
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E950" s="2"/>
+      <c r="E950" s="57"/>
     </row>
     <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E951" s="2"/>
+      <c r="E951" s="57"/>
     </row>
     <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E952" s="2"/>
+      <c r="E952" s="57"/>
     </row>
     <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E953" s="2"/>
+      <c r="E953" s="57"/>
     </row>
     <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E954" s="2"/>
+      <c r="E954" s="57"/>
     </row>
     <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E955" s="2"/>
+      <c r="E955" s="57"/>
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E956" s="2"/>
+      <c r="E956" s="57"/>
     </row>
     <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E957" s="2"/>
+      <c r="E957" s="57"/>
     </row>
     <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E958" s="2"/>
+      <c r="E958" s="57"/>
     </row>
     <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E959" s="2"/>
+      <c r="E959" s="57"/>
     </row>
     <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E960" s="2"/>
+      <c r="E960" s="57"/>
     </row>
     <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E961" s="2"/>
+      <c r="E961" s="57"/>
     </row>
     <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E962" s="2"/>
+      <c r="E962" s="57"/>
     </row>
     <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E963" s="2"/>
+      <c r="E963" s="57"/>
     </row>
     <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E964" s="2"/>
+      <c r="E964" s="57"/>
     </row>
     <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E965" s="2"/>
+      <c r="E965" s="57"/>
     </row>
     <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E966" s="2"/>
+      <c r="E966" s="57"/>
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E967" s="2"/>
+      <c r="E967" s="57"/>
     </row>
     <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E968" s="2"/>
+      <c r="E968" s="57"/>
     </row>
     <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E969" s="2"/>
+      <c r="E969" s="57"/>
     </row>
     <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E970" s="2"/>
+      <c r="E970" s="57"/>
     </row>
     <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E971" s="2"/>
+      <c r="E971" s="57"/>
     </row>
     <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E972" s="2"/>
+      <c r="E972" s="57"/>
     </row>
     <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E973" s="2"/>
+      <c r="E973" s="57"/>
     </row>
     <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E974" s="2"/>
+      <c r="E974" s="57"/>
     </row>
     <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E975" s="2"/>
+      <c r="E975" s="57"/>
     </row>
     <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E976" s="2"/>
+      <c r="E976" s="57"/>
     </row>
     <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E977" s="2"/>
+      <c r="E977" s="57"/>
     </row>
     <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E978" s="2"/>
+      <c r="E978" s="57"/>
     </row>
     <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E979" s="2"/>
+      <c r="E979" s="57"/>
     </row>
     <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E980" s="2"/>
+      <c r="E980" s="57"/>
     </row>
     <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E981" s="2"/>
+      <c r="E981" s="57"/>
     </row>
     <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E982" s="2"/>
+      <c r="E982" s="57"/>
     </row>
     <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E983" s="2"/>
+      <c r="E983" s="57"/>
     </row>
     <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E984" s="2"/>
+      <c r="E984" s="57"/>
     </row>
     <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E985" s="2"/>
+      <c r="E985" s="57"/>
     </row>
     <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E986" s="2"/>
+      <c r="E986" s="57"/>
     </row>
     <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E987" s="2"/>
+      <c r="E987" s="57"/>
     </row>
     <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E988" s="2"/>
+      <c r="E988" s="57"/>
     </row>
     <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E989" s="2"/>
+      <c r="E989" s="57"/>
     </row>
     <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E990" s="2"/>
+      <c r="E990" s="57"/>
     </row>
     <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E991" s="2"/>
+      <c r="E991" s="57"/>
     </row>
     <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E992" s="2"/>
+      <c r="E992" s="57"/>
     </row>
     <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E993" s="2"/>
+      <c r="E993" s="57"/>
     </row>
     <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E994" s="2"/>
+      <c r="E994" s="57"/>
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E995" s="2"/>
+      <c r="E995" s="57"/>
     </row>
     <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E996" s="2"/>
+      <c r="E996" s="57"/>
     </row>
     <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E997" s="2"/>
+      <c r="E997" s="57"/>
     </row>
     <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E998" s="2"/>
+      <c r="E998" s="57"/>
     </row>
     <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E999" s="2"/>
+      <c r="E999" s="57"/>
     </row>
     <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E1000" s="2"/>
+      <c r="E1000" s="57"/>
     </row>
     <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E1001" s="2"/>
+      <c r="E1001" s="57"/>
     </row>
     <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E1002" s="2"/>
+      <c r="E1002" s="57"/>
     </row>
     <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E1003" s="2"/>
+      <c r="E1003" s="57"/>
     </row>
   </sheetData>
   <dataValidations count="4">
